--- a/Best_100_features_Randomforest_90percents/Precision_Recall_Accuracy_100features_category_stromal_34.xlsx
+++ b/Best_100_features_Randomforest_90percents/Precision_Recall_Accuracy_100features_category_stromal_34.xlsx
@@ -512,44 +512,44 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4784658399120222</v>
+        <v>0.4685832250172032</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4878048780487805</v>
+        <v>0.475609756097561</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4878048780487805</v>
+        <v>0.475609756097561</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4814814814814815</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4642857142857143</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4727272727272727</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3246031746031746</v>
+        <v>0.3562271062271063</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="L2" t="n">
         <v>0.5</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'max_depth': 34, 'max_features': 'sqrt', 'min_samples_leaf': 3, 'min_samples_split': 14, 'n_estimators': 125}</t>
+          <t>{'max_depth': 20, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 10, 'n_estimators': 200}</t>
         </is>
       </c>
     </row>
